--- a/data/hotels_by_city/Houston/Houston_shard_451.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_451.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56351-d1555781-Reviews-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-New-Caney.h3007141.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1545 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r594707698-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>56351</t>
+  </si>
+  <si>
+    <t>1555781</t>
+  </si>
+  <si>
+    <t>594707698</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Not the best!</t>
+  </si>
+  <si>
+    <t>I stay at a lot of LaQuinta hotels throughout the year and this property was the first I was a little disappointed in. This trip I was there with my sons baseball team. First the man working the front desk complained about how busy they were the entire time. Each time one of us needed something he told us all about his problems and how busy he was etc. When I first wanted to check in I asked if I could have a first floor room and he stated MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Dhiren B, Manager at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I stay at a lot of LaQuinta hotels throughout the year and this property was the first I was a little disappointed in. This trip I was there with my sons baseball team. First the man working the front desk complained about how busy they were the entire time. Each time one of us needed something he told us all about his problems and how busy he was etc. When I first wanted to check in I asked if I could have a first floor room and he stated More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r586207938-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>586207938</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does this place get decent reviews?! </t>
+  </si>
+  <si>
+    <t>The location is fine but as far as the hotel, it’s gross. It smells of mildew in the halls. Our room had dirty socks under the sink like no one swept or mopped. Hair in the shower and sinks. The floors in the rooms are sloped and cracking like the foundation is off. If you want to get some good sleep, forget it. The walls are paper thin and every time someone shuts a door or walks upstairs the entire bed and floor shakes. La Quintas aren’t high quality hotels but for the price they could at least keep it clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Dhiren B, Manager at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>The location is fine but as far as the hotel, it’s gross. It smells of mildew in the halls. Our room had dirty socks under the sink like no one swept or mopped. Hair in the shower and sinks. The floors in the rooms are sloped and cracking like the foundation is off. If you want to get some good sleep, forget it. The walls are paper thin and every time someone shuts a door or walks upstairs the entire bed and floor shakes. La Quintas aren’t high quality hotels but for the price they could at least keep it clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r583794033-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>583794033</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Very Clean and New</t>
+  </si>
+  <si>
+    <t>It seemed like this hotel was fairly new.  It was clean and comfortable except the beds which I found to be uncomfortable.  Thus the low score on sleep quality.  It was $100 a night less than the LaQuinta where I need to be.  I will drive 15 miles to save $100.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Dhiren B, Manager at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>It seemed like this hotel was fairly new.  It was clean and comfortable except the beds which I found to be uncomfortable.  Thus the low score on sleep quality.  It was $100 a night less than the LaQuinta where I need to be.  I will drive 15 miles to save $100.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r569219605-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>569219605</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Clean [place,great price</t>
+  </si>
+  <si>
+    <t>I booked a few weeks in advance so I was able to get a fair price (in my opinion).They had my pack and play set up and ready for me upon my arrival and the hotel was clean and had a fresh feeling. The hot eggs and sausage were cool since we were just expecting waffles,cereal,and some pastries. Was right around the corner from our softball field so will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Dhiren B, Manager at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>I booked a few weeks in advance so I was able to get a fair price (in my opinion).They had my pack and play set up and ready for me upon my arrival and the hotel was clean and had a fresh feeling. The hot eggs and sausage were cool since we were just expecting waffles,cereal,and some pastries. Was right around the corner from our softball field so will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r567979688-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>567979688</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Dhiren B, Manager at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r551232006-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>551232006</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Carry sanitary wipes.</t>
+  </si>
+  <si>
+    <t>The room was very inexpensive but not very clean.  The hotel has gone downhill since my last stay. I suggest wiping down the bathroom, the phone and remote, the frige door has some liquid run down the front of it.  I also remove the bedspread and put it out of the way, yuk.  They neglected to clean our room the day we wanted it done., no TP, trash cans full.  Breakfast was still the same every day and no healthy choices there. If you love carbs and fat this is the place for you. Biscuits and gravy, sugary batter waffles, breads, sausage, "scrambled" "eggs". They actually had sugar free syrup this time!  Lots of contractors and people travelling with dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Dhiren B, Manager at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>The room was very inexpensive but not very clean.  The hotel has gone downhill since my last stay. I suggest wiping down the bathroom, the phone and remote, the frige door has some liquid run down the front of it.  I also remove the bedspread and put it out of the way, yuk.  They neglected to clean our room the day we wanted it done., no TP, trash cans full.  Breakfast was still the same every day and no healthy choices there. If you love carbs and fat this is the place for you. Biscuits and gravy, sugary batter waffles, breads, sausage, "scrambled" "eggs". They actually had sugar free syrup this time!  Lots of contractors and people travelling with dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r528884164-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>528884164</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Nice staff, shabby hotel</t>
+  </si>
+  <si>
+    <t>We have stayed at several La Quinta Inns.  This one was disapointingly shabby.  Only the lobby and the exterior looked as we expected.  In our room someone had been smoking and the room reeked.  A cigarette was left on the floor!  One of our chairs had a big stain on it so the maid turned it around so that the zipper showed.  Our friend had a lazy boy type chair that was BROKEN.  It took 3 days before anything was done about it.  Carpet needed replacing.  The phone in our room did not work until the last day.  There was a blackout for 2 hours on our 2nd night there.  No one bothered to check on anyone as far as I now. Our ironing board was BROKEN.  How do you break an ironing board?  The choice of food was limited.   On the positive side, the bed was very comfortable and the desk attendants were very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at several La Quinta Inns.  This one was disapointingly shabby.  Only the lobby and the exterior looked as we expected.  In our room someone had been smoking and the room reeked.  A cigarette was left on the floor!  One of our chairs had a big stain on it so the maid turned it around so that the zipper showed.  Our friend had a lazy boy type chair that was BROKEN.  It took 3 days before anything was done about it.  Carpet needed replacing.  The phone in our room did not work until the last day.  There was a blackout for 2 hours on our 2nd night there.  No one bothered to check on anyone as far as I now. Our ironing board was BROKEN.  How do you break an ironing board?  The choice of food was limited.   On the positive side, the bed was very comfortable and the desk attendants were very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r523780597-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>523780597</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r521288347-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>521288347</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Best hotel EVER</t>
+  </si>
+  <si>
+    <t>This was a wonderful stay.  The staff was warm, accommodating and helpful.  Everyone from the desk person to housekeeping made it their job to make sure our stay was as comfortable as possible.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>This was a wonderful stay.  The staff was warm, accommodating and helpful.  Everyone from the desk person to housekeeping made it their job to make sure our stay was as comfortable as possible.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r507900652-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>507900652</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Awesome in a pinch</t>
+  </si>
+  <si>
+    <t>We stayed here last minute...best decision. Everything was new, our room was nice, cool and clean. The staff were pleasant and helpful. Breakfast was simple yet great as well. Will be staying there again if my travels take me there again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r506909296-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>506909296</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Needed a place to stay while moving, so we stayed five nights here. Pool, Hot tub, fitness center, and a nice Continental Breakfast. Rooms size is good and the front desk staff and maids are very nice.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r495039613-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>495039613</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Conference Stay</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay. Easy in, easy out. Access to Grand Parkway. Hotel was updated and staff was friendly and efficient. Plenty of restaurants and local shopping. close to Bush International and North Houston</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r479379738-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>479379738</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>LaQuinta Houston</t>
+  </si>
+  <si>
+    <t>Very clean hotel and friendly staff although a little hard to find. Need better directions for someone who is not familiar with the area. Yes, I would stay here again if my travels take me in this direction.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r474739366-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>474739366</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Great price but staff is less than</t>
+  </si>
+  <si>
+    <t>The suite I stayed in was very inexpensive.  The hot and cold were reversed on the faucet.  Breakfast was the same every day and no healthy choices there.  If you love carbs and fat this is the place for you.  Biscuits and gravy, sugary batter waffles, breads, sausage, scrambled eggs.  I asked for sugar free syrup, ended up buying my own after three days.  Then they told me they bought it but didn't put it out!  Dogs biting my ankles as I walked down the hallway.  I liked the exercise facility but I think I'll try somewhere else next time I'm in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r469295048-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>469295048</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Top Choice</t>
+  </si>
+  <si>
+    <t>Very relaxing,wonderful stay. Make this location your top choice for lodging, you won't be disappointed. Check in and out was quick and representatives were helpful, knowledgable about the area and very friendly.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r463635147-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>463635147</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel sense it first opened and have never had a problem  Has the same TV channel set up as the one I have at home and doesn't take long to find the program I'm  looking for  Will be coming back on my next trip in the area</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r462485017-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>462485017</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>A Good Value</t>
+  </si>
+  <si>
+    <t>Friendly staff, decent breakfast, better gym than I've had many places. There was some construction going on, which didn't bother me, but quite a few spots in the hotel seemed to have been neglected from cleaning for a while. My room was spotless, however. I'd stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r458615211-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>458615211</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Hotel was clean and comfortable.  I travel quite a bit for business and have found that LaQuinta is the best value for my money.  Would love to see them have better curtains as to block out the street lights but that is a personal preference.  Breakfast being available is always a plus.  The free nights I earn are well worth the stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r440049007-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>440049007</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Tasty Food..great price</t>
+  </si>
+  <si>
+    <t>Tasty food, great prices and delivery!  Give them a try! They deliver to hotels whichis great to have something other than pizza.  PORTIONS asre very generous. And very friendly staff...when traveling or a lunch or dinner meal...it's an A plus..ans so convenient if staying at hotel such as LaQuinta...</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r421639955-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>421639955</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Minute Maid park</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times when I have gone to watch have the Houston Astros play ball.  I have never encountered a problem. It is far enough north of Houston that you feel like you are out of the hustle and bustle of Houston. It is always clean and the staff have always been helpful.  I feel safe at this hotel.  The last time that I stayed closer to the airport my vehicle got vandalized.  This is why I searched this location and I will most likely stay here in my future visits.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r420472749-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>420472749</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Awsome</t>
+  </si>
+  <si>
+    <t>I was here for more then a month for work i had my husband and 3 young children with me. Loved this hotel. Great breakfast, gym, outdoor pool and hot tub. Also had computers and printers for guest to use.  Would definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r389902356-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>389902356</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Lack of attention to detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was not cleaned well: dust on picture frame with some dried up splashes on frame. About 1 inch dust line from wall out where missed by vacuum cleaner.Brought deficiencies to night desk clerk and again in morning, all we got was a perfunctory "I'm sorry."Manager responded on Saturday and stated "They dropped the ball" and I would be getting refund in email." 3 days ago. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r376205367-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>376205367</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r365871608-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>365871608</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Quick get a way</t>
+  </si>
+  <si>
+    <t>Nice clean hotel.  Staff was nice, and hotel was clean.  Far enough north of Houston to feel safe. Parking is limited.  Nothing over the top, just a normal room.  I will definitely consider this hotel on my next trip to watch the Astros play.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r354487213-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>354487213</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Newer Laquinta with spacious rooms</t>
+  </si>
+  <si>
+    <t>This Laquinta is a bit difficult to get to due to road work in the area but is worth the effort.  I had a king suite and it was very spacious with high ceilings which gave it a luxurious feel.  The pool and spa area is a bit underdeveloped but is comfortable with a very nice hot tub.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r344836654-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>344836654</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Very difficult to find and not in a very good area.</t>
+  </si>
+  <si>
+    <t>Room was very big and comfortable, this property has lots of potential with the new interstate coming around it. Just seems the staff always doing something besides hotel work. Night clerk Rau cannot stay off his telephone for more than 30 seconds, this is very poor customer service. When you sit at front desk from 11 pm until 7 am and cannot have the breakfast ready and warm gravy at 6 am its not what people expect.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r344379751-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>344379751</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r336340143-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>336340143</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Poor location and facility</t>
+  </si>
+  <si>
+    <t>This La Quinta is located in the shady part of the town. Businesses around this place have steel bars on their doors and windows like a prison. Hotel hallways are narrow and dark. hotel's walls are not very well insulated, you can hear everyone around you especially in the bathrooms.  Staffs were friendly and nice.  This place should not be call "Suite". there is Lots of construction around the hotel which makes it difficult to get in and out of the place, of course that is not the hotel's fault.  There not many places to eat around the hotel.  Most decent restaurants are 10-15 miles from this place.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r329753529-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>329753529</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Solomon and Naomi to the Rescue!</t>
+  </si>
+  <si>
+    <t>I don't normally post reviews, just don't take the time. However, today, two individuals deserve much more than the time. My family of four stayed at the LaQuinta Inn in New Caney for two nights. So, this morning we were loading our vehicles to leave. Our son accidentally dropped one of our vehicle keys down the elevator shaft. Panic hit. We live in the DFW area and had to get back today. Naomi was very helpful in our situation. She called Solomon their maintenance person, locksmiths, etc. She was very determined to get us help while still taking care of other guest. Solomon is one of those rare people who's determination and ingenuity saved the day!! I cannot praise their efforts enough. They are truly great people and a credit to their organization!Thank you,David PearsonGrapevine, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>I don't normally post reviews, just don't take the time. However, today, two individuals deserve much more than the time. My family of four stayed at the LaQuinta Inn in New Caney for two nights. So, this morning we were loading our vehicles to leave. Our son accidentally dropped one of our vehicle keys down the elevator shaft. Panic hit. We live in the DFW area and had to get back today. Naomi was very helpful in our situation. She called Solomon their maintenance person, locksmiths, etc. She was very determined to get us help while still taking care of other guest. Solomon is one of those rare people who's determination and ingenuity saved the day!! I cannot praise their efforts enough. They are truly great people and a credit to their organization!Thank you,David PearsonGrapevine, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r329302737-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>329302737</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Barking dogs</t>
+  </si>
+  <si>
+    <t>Nice hotel except for barking dogs. This must be the only hotel in the area that is pet friendly, there were at least 5 rooms with pets. Barking at 6:30 did not make me a happy camper. Excellent breakfast! In construction area - not hotels fault. Was a little confusing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r327541507-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>327541507</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Flyball Tournaments</t>
+  </si>
+  <si>
+    <t>I stay at LaQuinta Inn due to NAFA Flyball Tournaments.  The staff is courteous.  The facility is clean.  The rooms are very clean.  I like also there are plenty of towels and wash clothes in the rooms, especially at New Caney, TX location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r320792663-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>320792663</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Hidden in Plane Sight !!</t>
+  </si>
+  <si>
+    <t>The room was good, the staff was friendly, the breakfast was . . . average, and the price was fine.  This hotel is easily seen from highway 59, but seeing and arriving is two different things.  This is caused by road work.  It will be a lot better when the construction work is complete.  I would stay here again . . . especially now that I know how to get to it.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r317240662-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>317240662</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Great Place if you can find it!!</t>
+  </si>
+  <si>
+    <t>Nice property and great staff...its the most difficult property (due to road construction) to get to!  Once your there its a great hidden gem...recommend this place if your in the area...as a matter of fact, it is great for most areas North of Houston, took me 25 mins to get to Pasadena from this location at 9am!!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r306851841-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>306851841</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Convenient and Clean</t>
+  </si>
+  <si>
+    <t>This hotel was bargain priced and conveniently located near Kingwood Nursing Home.  It is clean and well staffed.  Access is a little difficult due to construction on IH 69.  The room was over sized with a microwave and fridge.  It would have been nice to have the wall mounted TV on a swivel mount to improve viewing from all parts of the room.  Breakfast was very good with a range of choices including scrambled eggs, sausage, gravy and waffle makers.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r282925341-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>282925341</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Nice stay. Good value</t>
+  </si>
+  <si>
+    <t>Room was very nice. The hotel in somewhat under constructions. The area roads are all under constructions. It's a bit difficult to get to, especially if you are visiting the area.Staff was courteous and friendly.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r281124820-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>281124820</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>First we were able to get a great rate!  We had the king bed with the sofa bed in the living room area.   It was roomy and we were able to have our family (12) visitors to come in and spend time with us.  The pool and whirlpool worked well, clean.   The rooms were kept clean, housekeeping did a good job.   No dust, no bugs, no musty smells.  Nice place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r273240445-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>273240445</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>The staff here is very helpful  and friendly   we love how we are able to bring our pets with us... they are family too...   They always seem to have the perfect locations for these hotels...  Thank you for a great stay...</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r253467901-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>253467901</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>La Quinta Stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel almost every time I go to Houston on Personal business and this is being going on for several years. This hotel is very well kept and its friendly staff / Management are awesome. They have accommodated me on the same room for me most of the time. In my experience they really care about their customers and do the best they can to accommodate them. The location is right off the Hwy 59, (close to freeways and accessible to all nearby restaurants).</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r249356077-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>249356077</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>My "go to" hotel near IAH</t>
+  </si>
+  <si>
+    <t>Once again this hotel did not disappoint!  Check in is a breeze with a friendly person behind the front desk.  Luggage carts work well and the room was clean and fresh.  Had a nice quiet night and the breakfast was outstanding!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r235940055-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>235940055</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>This is a very good smaller, roadside hotel however it is remarkably well operated and outfitted.  The fitness center is minimal however is sufficient for a short stay.  The pool was crystal clear and they even had a hot tub.  I would consider staying here again if I needed an inexpensive place that is reasonably close to George Bush Intercontinental Airport, Houston.Rooms were very spacious with 16 foot ceilings.  Oddly enough there were no blinds on the windows, just the screen and edging.  Evidently they encourage you to rise with the sun.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r237216050-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>237216050</t>
+  </si>
+  <si>
+    <t>Good place for the price</t>
+  </si>
+  <si>
+    <t>I did enjoy my stay at this hotel.  Hotel was clean, price is very reasonable and the breakfast was really good.    It was really close to a WalMart so that made it really easy to go get something we needed without having to get on a highway and travel far.  I'd stay again if I was in this area.   They are doing some construction along the highway right there near the hotel which I hope is done soon in case we do head back to that area.  Other than that tho, the stay was really great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r234480252-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>234480252</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Baby Shower Weekend</t>
+  </si>
+  <si>
+    <t>I have stayed several times. I'm most impressed with the beds, nice and firm. The location is good for me when I'm visiting family. However the current road  construction is making things dusty and dirty. Of course you have to use a few different roads, for the time being.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r227026963-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>227026963</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Quiet, comfortable stay</t>
+  </si>
+  <si>
+    <t>Nice stay,  I stayed here for 9 days while looking for an apartment.  Nice quiet room with comfortable bed.  The breakfast was just OK.  Same foods every morning.  Construction going on close by was not much of a hassle.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r225437464-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>225437464</t>
+  </si>
+  <si>
+    <t>First impression</t>
+  </si>
+  <si>
+    <t>We arrived to check in at about 9:40 pm last night. The staff is courteous and they could tell we were exhausted from traveling. The check was one of the fastest I've ever experienced. When we entered our room the welcoming smell of fresh linens greeted us. The overall decor and cleanliness were impressive, I've seen some pretty bad reviews for this place but we did not have that type of experience. We are definitely staying here again. I was compelled to write this review after awaking from our first night here. My wife and I are simple folks who don't have expensive taste but we are particular with hotels because they are our home away from home so this place definitely made us feel at home. Great job La Quinta!MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived to check in at about 9:40 pm last night. The staff is courteous and they could tell we were exhausted from traveling. The check was one of the fastest I've ever experienced. When we entered our room the welcoming smell of fresh linens greeted us. The overall decor and cleanliness were impressive, I've seen some pretty bad reviews for this place but we did not have that type of experience. We are definitely staying here again. I was compelled to write this review after awaking from our first night here. My wife and I are simple folks who don't have expensive taste but we are particular with hotels because they are our home away from home so this place definitely made us feel at home. Great job La Quinta!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r227026834-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>227026834</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel for the Price!!</t>
+  </si>
+  <si>
+    <t>We have been staying here for almost two weeks (4 adults and 2 small dogs).  LOVE the weekly rate. The staff was very friendly and helpful.  I asked for an extra ice bucket and chair without arms and they were able to accommodate without any problems. Rooms were clean.  Microwave did not work when we went to use it, but they changed it out within 15 minutes.  Air Conditioning works great!! Breakfast consist of juice, coffee, milk, scrambled eggs, sausage, biscuits, gravy, Belgium waffles, oatmeal, bagels, muffins, toast, pastries and cereal and is served from 6 to 9 a.m.  Staff was very helpful in getting my points started.  With the points I have already earned, I was able to stay a night in another state for only $16. I will be looking for La Quinta Inns for all my future needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have been staying here for almost two weeks (4 adults and 2 small dogs).  LOVE the weekly rate. The staff was very friendly and helpful.  I asked for an extra ice bucket and chair without arms and they were able to accommodate without any problems. Rooms were clean.  Microwave did not work when we went to use it, but they changed it out within 15 minutes.  Air Conditioning works great!! Breakfast consist of juice, coffee, milk, scrambled eggs, sausage, biscuits, gravy, Belgium waffles, oatmeal, bagels, muffins, toast, pastries and cereal and is served from 6 to 9 a.m.  Staff was very helpful in getting my points started.  With the points I have already earned, I was able to stay a night in another state for only $16. I will be looking for La Quinta Inns for all my future needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r218807833-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>218807833</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Not fancy, but always clean, bright, safe</t>
+  </si>
+  <si>
+    <t>I like La Quinta hotels, and always look for them because they're always clean and affordable. I was in town for a friend's wedding. It was just what I needed. The staff was friendly and helpful, the breakfast was good, and overall I had a good experience.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r217361594-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>217361594</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!</t>
+  </si>
+  <si>
+    <t>I came to town to visit a sick relative, was planning to visit and then drive 3 hours back home. Sadly my uncle passed away, so at 2 am I called this hotel, hoping to find a room. They did have one thankfully- I spoke with Rachel at the front desk, explaining my reason for needing the room. This lady could not have been any friendlier to deal with or speak to. She quoted me an excellent price for the room, and was sympathetic to the loss of my loved one.  She even helped us to gather needed toiletries that I didn't know I needed until I arrived to check in. The hotel was in excellent shape, and immaculately clean. They serve a hot breakfast, which I was unable to visit due to meeting family members elsewhere- but everything looked hot, fresh, and delicious. I was sorry to miss out. There is construction going on in front of the hotel, but please don't let this deter you from staying here, with a couple quick turns for a detour you will be right back to Hwy 59. I highly recommend this hotel and most especially Rachel. When I return to the area- this is where I will be staying. MoreShow less</t>
+  </si>
+  <si>
+    <t>I came to town to visit a sick relative, was planning to visit and then drive 3 hours back home. Sadly my uncle passed away, so at 2 am I called this hotel, hoping to find a room. They did have one thankfully- I spoke with Rachel at the front desk, explaining my reason for needing the room. This lady could not have been any friendlier to deal with or speak to. She quoted me an excellent price for the room, and was sympathetic to the loss of my loved one.  She even helped us to gather needed toiletries that I didn't know I needed until I arrived to check in. The hotel was in excellent shape, and immaculately clean. They serve a hot breakfast, which I was unable to visit due to meeting family members elsewhere- but everything looked hot, fresh, and delicious. I was sorry to miss out. There is construction going on in front of the hotel, but please don't let this deter you from staying here, with a couple quick turns for a detour you will be right back to Hwy 59. I highly recommend this hotel and most especially Rachel. When I return to the area- this is where I will be staying. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r217355651-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>217355651</t>
+  </si>
+  <si>
+    <t>Repeat Performance, All Still Great..</t>
+  </si>
+  <si>
+    <t>This hotel offers clean and comfy rooms with a friendly and helpful staff at the front desk. The pool has a nice small Jacuzzi that is actually hot. AC and TV worked fine in the rooms. Wi-Fi was reliable and met our needs. Even though breakfast is nothing special, it is typical for La Quinta and does the job to feed you, but ends at 9am. This is earlier than other La Quintas 10am end time. For those who want to sleep in, La Quintas’ breakfasts overall in their hotels are not of the quality to warrant getting up for it. Out of the hotel’s control, there is construction on the nearby ramp making getting onto route 59 a bit of a chore, but easy once you learn the way.  Nearby, Fat Boys restaurant has great food. Also, a short drive on the loop road is Pete’s Burgers, a real great find and place to eat. Stores are a short drive also, including groceries etc. We stayed at La Quinta Kingwood and found this New Caney La Quinta hotel, which is about 14 minutes away, to be less expensive and overall much better service, better attitude etc. This is our second stay at this La Quinta and will stay here again next time when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel offers clean and comfy rooms with a friendly and helpful staff at the front desk. The pool has a nice small Jacuzzi that is actually hot. AC and TV worked fine in the rooms. Wi-Fi was reliable and met our needs. Even though breakfast is nothing special, it is typical for La Quinta and does the job to feed you, but ends at 9am. This is earlier than other La Quintas 10am end time. For those who want to sleep in, La Quintas’ breakfasts overall in their hotels are not of the quality to warrant getting up for it. Out of the hotel’s control, there is construction on the nearby ramp making getting onto route 59 a bit of a chore, but easy once you learn the way.  Nearby, Fat Boys restaurant has great food. Also, a short drive on the loop road is Pete’s Burgers, a real great find and place to eat. Stores are a short drive also, including groceries etc. We stayed at La Quinta Kingwood and found this New Caney La Quinta hotel, which is about 14 minutes away, to be less expensive and overall much better service, better attitude etc. This is our second stay at this La Quinta and will stay here again next time when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r216610827-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>216610827</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Great hotel overall and outstanding value for the money.</t>
+  </si>
+  <si>
+    <t>This hotel was super clean. It seemed as if it was fairly new construction as of the date of my visit, which was July of 2014. It has high ceilings which I am a big fan of and which made the room feel larger than it actually was. 
+The WIFI worked very well which is important for me as a business traveler.  The staff was very friendly and helpful. The beds were clean and comfortable and the pillows were very comfortable also. There were plenty of large clean towels in the bathroom. 
+There is a road construction project going on right by this hotel which made it a bit difficult to get to the first time, the GPS tried to send me a way that no longer exists. Once I figured out how to get there though, it was easier when I left and returned a few times. The only slightly negative thing I can say is that the breakfast was only ok in my opinion. There was no premade oatmeal like at most hotels and the packets of oatmeal to make your own only had the sugar filled flavored ones and no plain oatmeal. But I eat super healthy and maybe sugar and flavor filled oatmeal, along with greasy sausage and pastries sounds like a perfect breakfast for you, just my opinion.
+I am very particular when it comes to the conditions in a hotel, and overall it was...This hotel was super clean. It seemed as if it was fairly new construction as of the date of my visit, which was July of 2014. It has high ceilings which I am a big fan of and which made the room feel larger than it actually was. The WIFI worked very well which is important for me as a business traveler.  The staff was very friendly and helpful. The beds were clean and comfortable and the pillows were very comfortable also. There were plenty of large clean towels in the bathroom. There is a road construction project going on right by this hotel which made it a bit difficult to get to the first time, the GPS tried to send me a way that no longer exists. Once I figured out how to get there though, it was easier when I left and returned a few times. The only slightly negative thing I can say is that the breakfast was only ok in my opinion. There was no premade oatmeal like at most hotels and the packets of oatmeal to make your own only had the sugar filled flavored ones and no plain oatmeal. But I eat super healthy and maybe sugar and flavor filled oatmeal, along with greasy sausage and pastries sounds like a perfect breakfast for you, just my opinion.I am very particular when it comes to the conditions in a hotel, and overall it was a great experience and I would recommend it if you are looking for a clean comfortable place to stay. All of the other hotels I saw in the area at the price I paid for this room, weren't nearly as nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was super clean. It seemed as if it was fairly new construction as of the date of my visit, which was July of 2014. It has high ceilings which I am a big fan of and which made the room feel larger than it actually was. 
+The WIFI worked very well which is important for me as a business traveler.  The staff was very friendly and helpful. The beds were clean and comfortable and the pillows were very comfortable also. There were plenty of large clean towels in the bathroom. 
+There is a road construction project going on right by this hotel which made it a bit difficult to get to the first time, the GPS tried to send me a way that no longer exists. Once I figured out how to get there though, it was easier when I left and returned a few times. The only slightly negative thing I can say is that the breakfast was only ok in my opinion. There was no premade oatmeal like at most hotels and the packets of oatmeal to make your own only had the sugar filled flavored ones and no plain oatmeal. But I eat super healthy and maybe sugar and flavor filled oatmeal, along with greasy sausage and pastries sounds like a perfect breakfast for you, just my opinion.
+I am very particular when it comes to the conditions in a hotel, and overall it was...This hotel was super clean. It seemed as if it was fairly new construction as of the date of my visit, which was July of 2014. It has high ceilings which I am a big fan of and which made the room feel larger than it actually was. The WIFI worked very well which is important for me as a business traveler.  The staff was very friendly and helpful. The beds were clean and comfortable and the pillows were very comfortable also. There were plenty of large clean towels in the bathroom. There is a road construction project going on right by this hotel which made it a bit difficult to get to the first time, the GPS tried to send me a way that no longer exists. Once I figured out how to get there though, it was easier when I left and returned a few times. The only slightly negative thing I can say is that the breakfast was only ok in my opinion. There was no premade oatmeal like at most hotels and the packets of oatmeal to make your own only had the sugar filled flavored ones and no plain oatmeal. But I eat super healthy and maybe sugar and flavor filled oatmeal, along with greasy sausage and pastries sounds like a perfect breakfast for you, just my opinion.I am very particular when it comes to the conditions in a hotel, and overall it was a great experience and I would recommend it if you are looking for a clean comfortable place to stay. All of the other hotels I saw in the area at the price I paid for this room, weren't nearly as nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r216731879-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>216731879</t>
+  </si>
+  <si>
+    <t>served its purpose</t>
+  </si>
+  <si>
+    <t>Overall ok experience.  Did have kids about 11:00 pm that didn't have proper supervision (shouting in the hall, letting door slam) for a few minutes.  Pet policy meant that was some barking early morning.  But essentially got what I paid for.  Clean room, adequate breakfast.  Staff was personable and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r217368663-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>217368663</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>This is a newer property and the first time I've stayed at this chain in a long time.  I was pleasantly surprised.  The look is modern, sleek and quite a change from the normal look of this chain's properties.  Good location, easy access to restaurants and the freeway but not noisy. I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r214776136-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>214776136</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Clean, Updated Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here June 2014.  This hotel is very clean, looked newly updated &amp; is in location that is quiet.  It was easy to get to restaurants and shopping.  It was safe, well lit, good parking. Everything was great!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r212278012-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>212278012</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Comfort and convenience</t>
+  </si>
+  <si>
+    <t>The hotel was very able to accommodate a large number of ladies attending the Women of Faith Conference and is perfectly located to the Lakewood Church. Will stay again. The room was large and very suitable for 3 women.  It had lots of mirrors so we didn't have to wait in line to do our hair and makeup.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r207643450-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>207643450</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Very friendly staff and room was wonderful!</t>
+  </si>
+  <si>
+    <t>We stayed here for almost week.  The staff was very friendly and helpful!  They even stored some pies for us in their freezer so we could take them home to our kids.  Everything was very clean and well taken care of.  The rooms were nice and spacious.  The place had quite a few kids staying there while were there but was still very quiet.  We didn't hear any noise from the halls or the rooms next to us.  The breakfast was plentify and there were alot of different choices.  The only complaint I would have is that the hot tub wasn't hot at all for most of our stay.  It was just barely luke warm.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for almost week.  The staff was very friendly and helpful!  They even stored some pies for us in their freezer so we could take them home to our kids.  Everything was very clean and well taken care of.  The rooms were nice and spacious.  The place had quite a few kids staying there while were there but was still very quiet.  We didn't hear any noise from the halls or the rooms next to us.  The breakfast was plentify and there were alot of different choices.  The only complaint I would have is that the hot tub wasn't hot at all for most of our stay.  It was just barely luke warm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r199693326-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>199693326</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Service</t>
+  </si>
+  <si>
+    <t>Arrived very late on Thurs. night to a room that was wonderful, not too hot or cold, clean, and comfortable.  PET Friendly and staff was very helpful and nice.   Stayed 4 nights, easy access on/off 59.  There seemed to be almost as many pets as their were guests and the hotel handled both guests and pets remarkably.  I'll stay here again if I travel to Houston area.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r197803021-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>197803021</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>We stayed here while our RV home was being worked on.  I needed to do computer work with 2 monitors.  We chose the king executive suite, which was ideal.  It had a separate sitting area, large desk, and then a bedroom area.  Great room in excellent condition.  Hotel staff went out of their way to get me a ground floor room because I had my pet with me, and early arrival.  Only complaint - bed was hard.  We are used to an air bed.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r195216076-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>195216076</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r190357823-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>190357823</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>None Better In The Area</t>
+  </si>
+  <si>
+    <t>LaQuinta Inn in New Caney is not only a five star hotel with a three star price, you receive top notch service. The desk personnel are the friendliest around. Every time and I mean every time I'm in the area, THIS is where I stay.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r190357740-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>190357740</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>nice place for family visit</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for our previous three visits in the area and were very satisfied with the price and condition.  The hotel is only a few years old and they are taking care of it very well.  Construction on the highway makes the location a little inconvenient when trying to go into Humble or Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r188105731-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>188105731</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Very serene and clean environment</t>
+  </si>
+  <si>
+    <t>My family enjoyed our short stay at the hotel. The room was very clean and the free breakfast was well worth it. The hotel rate was low compared to the others we reviewed in the area. Will definitely stay in this hotel again whenever I am in the New Caney area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r180741980-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>180741980</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Very pet friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I drove down to Houston to pick up my rescue bullmastiff. The staff was wonderful, the room was clean, and no one even batted an eye at the sight of my huge dog on her pink leash. In fact, she wasn't the only pet on the property. </t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r172343349-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>172343349</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>Nice week long stay. Bed was very comfortable.  Never ran out of clean towels from housekeeping s great job. Always stay at La Quinta where ever we go.:-)  Need 2 small TV's if you get the rooms with a couch instead one 1 big one located in the center but just a minor inconvenience.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r169299969-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>169299969</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r156461510-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>156461510</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>We stay here many times.. and Love it.........</t>
+  </si>
+  <si>
+    <t>This hotel is great....... they go above and beyond everytime we stay here ......Love the rooms, very clean. They make us feel at home.... That is important when travling with a 3 yr old. Whom loves the music they play on the radio...We actualy got him caught on camera dancing to the music outside. We always stay at this hotel.  We are not just another guest when we stay here they know each of us in our family at this hotel.....Dont miss a great price and stay close to houston</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r153481830-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>153481830</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>Stayed here two weeks ago and thoroughly enjoyed the experience.  The rooms, bathrooms, and even the hallways smelled clean.  Mattress and pillows were super comfortable.  Sheets and towels were clean as well. The location is about 30 minutes from downtown Houston but Highway 59 is a straight shot to all the area attractions.  Saved $100 over two nights if we had stayed 8 miles closer in Humble, Tx.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r152945463-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>152945463</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Many stays, no disappointments</t>
+  </si>
+  <si>
+    <t>I have reviewed this hotel before because I stay there when I have an early or late arriving flight out of George Bush Airport.  The staff is great, the rooms are always top notch and the price is great.  I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6286, Owner at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>I have reviewed this hotel before because I stay there when I have an early or late arriving flight out of George Bush Airport.  The staff is great, the rooms are always top notch and the price is great.  I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r150342214-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>150342214</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Our La Quinta experience</t>
+  </si>
+  <si>
+    <t>Very clean and staff was nice and friendly.  Will definitely stay there again. We travel with our 2 little dogs and was treated very nicely. We had a great stay and our dogs did great also.The rooms are beautiful and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Very clean and staff was nice and friendly.  Will definitely stay there again. We travel with our 2 little dogs and was treated very nicely. We had a great stay and our dogs did great also.The rooms are beautiful and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r149996117-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>149996117</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r140043444-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>140043444</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Excellent value. peaceful pretty hotel</t>
+  </si>
+  <si>
+    <t>Minutes from Houston, far enough out to be free of the congestion and noise. Also close to recreation (fishing, boating, etc.). Pretty area, friendly staff, price was excellent. Everything you need is close. I loved it and will stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>LQ6286, Owner at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded September 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2012</t>
+  </si>
+  <si>
+    <t>Minutes from Houston, far enough out to be free of the congestion and noise. Also close to recreation (fishing, boating, etc.). Pretty area, friendly staff, price was excellent. Everything you need is close. I loved it and will stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r136254222-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>136254222</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Not as good as I expected</t>
+  </si>
+  <si>
+    <t>I stayed in a La Quinta in June in California and was really impressed with the hotel. I thought I'd give them another try on a recent trip to Houston. On the positive side, this was your basic by-the-freeway motel. No problems, basically nice folks.On the downside, it appears as though this motel was just plopped down in the middle of nowhere a month ago. I had a friend staying at the La Quinta in Kingwood and their motel seemed much nicer--nice landscaping, nice staff, more friendly. The New Caney location was next to a storage facility, no landscaping, nothing within walking distance. One of the staff seemed really bored, just sitting in the lobby chair looking depressed, which was kind of a drag. Contrast that with the front desk person at my friend's Kingwood La Quinta--friendly, outgoing, cheerful. I wish I had been there.The pool was a bit dirty (lots of beetles in it), the workout room didn't have towels in two days (I reused an old one from my first day there) and I found a dried up chicken bone underneath my bedskirt. Yuck.One suggestion: it would be really, really nice if the breakfast foods didn't go away at 9am sharp.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I stayed in a La Quinta in June in California and was really impressed with the hotel. I thought I'd give them another try on a recent trip to Houston. On the positive side, this was your basic by-the-freeway motel. No problems, basically nice folks.On the downside, it appears as though this motel was just plopped down in the middle of nowhere a month ago. I had a friend staying at the La Quinta in Kingwood and their motel seemed much nicer--nice landscaping, nice staff, more friendly. The New Caney location was next to a storage facility, no landscaping, nothing within walking distance. One of the staff seemed really bored, just sitting in the lobby chair looking depressed, which was kind of a drag. Contrast that with the front desk person at my friend's Kingwood La Quinta--friendly, outgoing, cheerful. I wish I had been there.The pool was a bit dirty (lots of beetles in it), the workout room didn't have towels in two days (I reused an old one from my first day there) and I found a dried up chicken bone underneath my bedskirt. Yuck.One suggestion: it would be really, really nice if the breakfast foods didn't go away at 9am sharp.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r135284786-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>135284786</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>My stayed at La Quinta</t>
+  </si>
+  <si>
+    <t>Very courteous staff; check-in and out with a breeze.  I loved the coffee and the other breakfast items.  I'm planning on staying again in three weeks.  I recommended this hotel to my other family members.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Very courteous staff; check-in and out with a breeze.  I loved the coffee and the other breakfast items.  I'm planning on staying again in three weeks.  I recommended this hotel to my other family members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r135265933-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>135265933</t>
+  </si>
+  <si>
+    <t>Elegant, Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>I think my title describes it all. The rooms were very nice and clean. The beds, pillows, countertops everything was of very nice quality. Bathroom was very spacious and very organized. No negatives I can think of. We will definitely be staying here for future visits. MoreShow less</t>
+  </si>
+  <si>
+    <t>I think my title describes it all. The rooms were very nice and clean. The beds, pillows, countertops everything was of very nice quality. Bathroom was very spacious and very organized. No negatives I can think of. We will definitely be staying here for future visits. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r132628036-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>132628036</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>A nice stay, one more time.</t>
+  </si>
+  <si>
+    <t>This i snot my first stay at this La Quinta, but it is the first time that I have been able to wake up leisurely and enjoy the breakfast offered. The breakfast was great. The property is very nice, and a 100% non-smoking campus. I thought the bed a bit hard, but I slept soundly for 7 hours, is it really was okay, if not quite what I regularly sleep on. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This i snot my first stay at this La Quinta, but it is the first time that I have been able to wake up leisurely and enjoy the breakfast offered. The breakfast was great. The property is very nice, and a 100% non-smoking campus. I thought the bed a bit hard, but I slept soundly for 7 hours, is it really was okay, if not quite what I regularly sleep on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r131716590-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>131716590</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Clean room &amp; common areas, newer hotel so that decor is up-to-date.  Front desk clerk was very friendly &amp; helpful (manager? so he can be commended, he was an Indian gentleman who spoke 3 or 4 languages).  One of the better free breakfast offerings I've seen compared to the other chains who offer free breakfasts...nothing fancy, just slightly better quality/tastes better.Negative is maybe the walls are a little thin but not too bad.  Also, not many restaurants in the immediate area.Yes, I would return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean room &amp; common areas, newer hotel so that decor is up-to-date.  Front desk clerk was very friendly &amp; helpful (manager? so he can be commended, he was an Indian gentleman who spoke 3 or 4 languages).  One of the better free breakfast offerings I've seen compared to the other chains who offer free breakfasts...nothing fancy, just slightly better quality/tastes better.Negative is maybe the walls are a little thin but not too bad.  Also, not many restaurants in the immediate area.Yes, I would return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r131489508-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>131489508</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>ive stayed at at a lot of hotels but this place is one of the best! free coffee and cookies! great clean new rooms! and great staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>ive stayed at at a lot of hotels but this place is one of the best! free coffee and cookies! great clean new rooms! and great staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r127051476-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>127051476</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>Quiet location off the interstate</t>
+  </si>
+  <si>
+    <t>I had a class in the area. This hotel was extremely close. It seems fairly new and it was nice and quiet. Good value for the money. I would recommend, also it's nice to have a fridge, microwave and a 42 inch tv with alot of good channels including several HBO'S. Wifi was also great. MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6286, Owner at La Quinta Inn &amp; Suites Houston New Caney, responded to this reviewResponded May 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2012</t>
+  </si>
+  <si>
+    <t>I had a class in the area. This hotel was extremely close. It seems fairly new and it was nice and quiet. Good value for the money. I would recommend, also it's nice to have a fridge, microwave and a 42 inch tv with alot of good channels including several HBO'S. Wifi was also great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r126393770-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>126393770</t>
+  </si>
+  <si>
+    <t>03/20/2012</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r126116661-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>126116661</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I travel over 200 days a year on business and this has to be one of the cleanest hotels I have ever stayed in. The staff is very friendly and helpful. I will be staying at this hotel ever time I visit the Houston area for business or pleasure.Jeff TMoreShow less</t>
+  </si>
+  <si>
+    <t>I travel over 200 days a year on business and this has to be one of the cleanest hotels I have ever stayed in. The staff is very friendly and helpful. I will be staying at this hotel ever time I visit the Houston area for business or pleasure.Jeff TMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r118219028-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>118219028</t>
+  </si>
+  <si>
+    <t>09/16/2011</t>
+  </si>
+  <si>
+    <t>A La Quinta State-of-the-Art</t>
+  </si>
+  <si>
+    <t>An excellent hotel Best-of-the-Best La Quintas I've ever stayed. From the nicely appointed lobby to the perfectly kept whirlpool and pool, color-changing illuminated in the dark, every is good at this property. Rooms are large, nicely perfumed, equipped elegant furniture and high, comfy bedding. We also had a 42" flat TV, microwave and a low-noise fridge. A card and candy welcomed us once in the room.Regarding the staff, we were openly greeted on arrival. We could test first hand the excellent attitude of Front Desk personnel, not very common nowadays.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r118209611-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>118209611</t>
+  </si>
+  <si>
+    <t>Weekend in New Caney</t>
+  </si>
+  <si>
+    <t>I enjoyed staying at this hotel. The staff was nice. The hotel and rooms were clean and nice. The bed was confortable. The TV remote didnt work very good and I informed them of this when I checked out and they said that they will make a note to get that fixed. I will stay there again if I'm in that area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r117768830-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>117768830</t>
+  </si>
+  <si>
+    <t>09/06/2011</t>
+  </si>
+  <si>
+    <t>Great 2nd Stay</t>
+  </si>
+  <si>
+    <t>My numerical ratings came out to 4.6, and I have no problem with rounding this property up to a 5.The staff are great from the owner/GM on down.  The location is great.  The condition and cleanliness of the hotel was very close to my first stay a month or two after it first opened (above average, in other words).  Parking is still a bit awkward/inconvenient, although they have made a positive adjustment or two between my first and most recent stay.  Internet access (Wi-Fi) was better than most hotels, but still on the slow side and somewhat inconsistent/unstable for a heavier business user.  I have no clue about breakfast, pool, exercise room, wakeup calls, etc.Overall, the positives of this property far outweigh the negatives, especially since negative traits of this property are my subjective opinions and relevant to some but not others.MoreShow less</t>
+  </si>
+  <si>
+    <t>My numerical ratings came out to 4.6, and I have no problem with rounding this property up to a 5.The staff are great from the owner/GM on down.  The location is great.  The condition and cleanliness of the hotel was very close to my first stay a month or two after it first opened (above average, in other words).  Parking is still a bit awkward/inconvenient, although they have made a positive adjustment or two between my first and most recent stay.  Internet access (Wi-Fi) was better than most hotels, but still on the slow side and somewhat inconsistent/unstable for a heavier business user.  I have no clue about breakfast, pool, exercise room, wakeup calls, etc.Overall, the positives of this property far outweigh the negatives, especially since negative traits of this property are my subjective opinions and relevant to some but not others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r69506096-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>69506096</t>
+  </si>
+  <si>
+    <t>07/02/2010</t>
+  </si>
+  <si>
+    <t>Very nice, clean, and friendly overnight stay</t>
+  </si>
+  <si>
+    <t>This is a very nice new  hotel.  The rooms are clean, spacious, and well decorated.  The staff are friendly and helpful.  I would surely return here again without hesitation.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r66329312-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>66329312</t>
+  </si>
+  <si>
+    <t>06/03/2010</t>
+  </si>
+  <si>
+    <t>Great New Hotel</t>
+  </si>
+  <si>
+    <t>I have not stayed at very many LaQuinta properties in the past, but I was blown away by the effort they made with the construction of this hotel.  As another reviewer noted, LaQuinta went out of their way to compete with some "higher end" hotel chains with this New Caney gem.  The staff, too, was all a delight to interact with.  The real proof in the pudding, as they say, will be on a subsequent trip to the same hotel after a few months.  If it was anything like my first five-night stay, the New Caney LaQuinta will be a "keeper."</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1555781-r59254151-La_Quinta_Inn_Suites_Houston_New_Caney-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>59254151</t>
+  </si>
+  <si>
+    <t>03/22/2010</t>
+  </si>
+  <si>
+    <t>Great Staff.....</t>
+  </si>
+  <si>
+    <t>This is new La Quinta suites, but the rooms are much better than normal la quintas.  Looks like with this better decor they are competing with much higher end properties.  It works for me.  The staff was great and they had a hot breakfast that was excellent.  The best, they have 42" lcd tvs, wow.  I rather stay here than near the noisy airport hotels.  Its quiet and nice.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2080,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2112,5567 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>188</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>188</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>188</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" t="s">
+        <v>250</v>
+      </c>
+      <c r="K33" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>259</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>271</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s">
+        <v>293</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>294</v>
+      </c>
+      <c r="O40" t="s">
+        <v>188</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O41" t="s">
+        <v>148</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s">
+        <v>304</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>306</v>
+      </c>
+      <c r="J43" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L43" t="s">
+        <v>309</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>300</v>
+      </c>
+      <c r="O43" t="s">
+        <v>148</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>107</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" t="s">
+        <v>312</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>315</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K47" t="s">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s">
+        <v>331</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>332</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>334</v>
+      </c>
+      <c r="J48" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" t="s">
+        <v>336</v>
+      </c>
+      <c r="L48" t="s">
+        <v>337</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s">
+        <v>341</v>
+      </c>
+      <c r="L49" t="s">
+        <v>342</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>332</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>345</v>
+      </c>
+      <c r="J50" t="s">
+        <v>346</v>
+      </c>
+      <c r="K50" t="s">
+        <v>347</v>
+      </c>
+      <c r="L50" t="s">
+        <v>348</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>332</v>
+      </c>
+      <c r="O50" t="s">
+        <v>107</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>350</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J51" t="s">
+        <v>346</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>332</v>
+      </c>
+      <c r="O51" t="s">
+        <v>148</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>355</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>357</v>
+      </c>
+      <c r="L52" t="s">
+        <v>358</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>332</v>
+      </c>
+      <c r="O52" t="s">
+        <v>107</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" t="s">
+        <v>361</v>
+      </c>
+      <c r="K53" t="s">
+        <v>362</v>
+      </c>
+      <c r="L53" t="s">
+        <v>363</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>364</v>
+      </c>
+      <c r="O53" t="s">
+        <v>107</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>364</v>
+      </c>
+      <c r="O54" t="s">
+        <v>188</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>370</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+      <c r="J55" t="s">
+        <v>372</v>
+      </c>
+      <c r="K55" t="s">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s">
+        <v>374</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>375</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>377</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>378</v>
+      </c>
+      <c r="J56" t="s">
+        <v>379</v>
+      </c>
+      <c r="K56" t="s">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s">
+        <v>381</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>382</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>384</v>
+      </c>
+      <c r="J57" t="s">
+        <v>385</v>
+      </c>
+      <c r="K57" t="s">
+        <v>386</v>
+      </c>
+      <c r="L57" t="s">
+        <v>387</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>388</v>
+      </c>
+      <c r="O57" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>389</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>390</v>
+      </c>
+      <c r="J58" t="s">
+        <v>391</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>392</v>
+      </c>
+      <c r="O58" t="s">
+        <v>107</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>393</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>394</v>
+      </c>
+      <c r="J59" t="s">
+        <v>395</v>
+      </c>
+      <c r="K59" t="s">
+        <v>396</v>
+      </c>
+      <c r="L59" t="s">
+        <v>397</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>398</v>
+      </c>
+      <c r="O59" t="s">
+        <v>107</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>399</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>400</v>
+      </c>
+      <c r="J60" t="s">
+        <v>401</v>
+      </c>
+      <c r="K60" t="s">
+        <v>402</v>
+      </c>
+      <c r="L60" t="s">
+        <v>403</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>398</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>404</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61" t="s">
+        <v>406</v>
+      </c>
+      <c r="K61" t="s">
+        <v>407</v>
+      </c>
+      <c r="L61" t="s">
+        <v>408</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>398</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>409</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>410</v>
+      </c>
+      <c r="J62" t="s">
+        <v>411</v>
+      </c>
+      <c r="K62" t="s">
+        <v>412</v>
+      </c>
+      <c r="L62" t="s">
+        <v>413</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>414</v>
+      </c>
+      <c r="O62" t="s">
+        <v>148</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>415</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>416</v>
+      </c>
+      <c r="J63" t="s">
+        <v>417</v>
+      </c>
+      <c r="K63" t="s">
+        <v>418</v>
+      </c>
+      <c r="L63" t="s">
+        <v>419</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>420</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>421</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>422</v>
+      </c>
+      <c r="J64" t="s">
+        <v>423</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>424</v>
+      </c>
+      <c r="O64" t="s">
+        <v>148</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>425</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>426</v>
+      </c>
+      <c r="J65" t="s">
+        <v>427</v>
+      </c>
+      <c r="K65" t="s">
+        <v>428</v>
+      </c>
+      <c r="L65" t="s">
+        <v>429</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>430</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>432</v>
+      </c>
+      <c r="J66" t="s">
+        <v>433</v>
+      </c>
+      <c r="K66" t="s">
+        <v>434</v>
+      </c>
+      <c r="L66" t="s">
+        <v>435</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>436</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>437</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>438</v>
+      </c>
+      <c r="J67" t="s">
+        <v>439</v>
+      </c>
+      <c r="K67" t="s">
+        <v>440</v>
+      </c>
+      <c r="L67" t="s">
+        <v>441</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>436</v>
+      </c>
+      <c r="O67" t="s">
+        <v>148</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>442</v>
+      </c>
+      <c r="X67" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>446</v>
+      </c>
+      <c r="J68" t="s">
+        <v>447</v>
+      </c>
+      <c r="K68" t="s">
+        <v>448</v>
+      </c>
+      <c r="L68" t="s">
+        <v>449</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>442</v>
+      </c>
+      <c r="X68" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>453</v>
+      </c>
+      <c r="J69" t="s">
+        <v>454</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>88</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>450</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>442</v>
+      </c>
+      <c r="X69" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>455</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>456</v>
+      </c>
+      <c r="J70" t="s">
+        <v>457</v>
+      </c>
+      <c r="K70" t="s">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s">
+        <v>459</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>460</v>
+      </c>
+      <c r="O70" t="s">
+        <v>148</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>461</v>
+      </c>
+      <c r="X70" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>464</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>465</v>
+      </c>
+      <c r="J71" t="s">
+        <v>466</v>
+      </c>
+      <c r="K71" t="s">
+        <v>467</v>
+      </c>
+      <c r="L71" t="s">
+        <v>468</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>469</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>461</v>
+      </c>
+      <c r="X71" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>471</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>472</v>
+      </c>
+      <c r="J72" t="s">
+        <v>473</v>
+      </c>
+      <c r="K72" t="s">
+        <v>474</v>
+      </c>
+      <c r="L72" t="s">
+        <v>475</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>476</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>461</v>
+      </c>
+      <c r="X72" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>478</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>479</v>
+      </c>
+      <c r="J73" t="s">
+        <v>473</v>
+      </c>
+      <c r="K73" t="s">
+        <v>480</v>
+      </c>
+      <c r="L73" t="s">
+        <v>481</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>476</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>461</v>
+      </c>
+      <c r="X73" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>483</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>484</v>
+      </c>
+      <c r="J74" t="s">
+        <v>485</v>
+      </c>
+      <c r="K74" t="s">
+        <v>486</v>
+      </c>
+      <c r="L74" t="s">
+        <v>487</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>488</v>
+      </c>
+      <c r="O74" t="s">
+        <v>148</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>461</v>
+      </c>
+      <c r="X74" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" t="s">
+        <v>492</v>
+      </c>
+      <c r="K75" t="s">
+        <v>493</v>
+      </c>
+      <c r="L75" t="s">
+        <v>494</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>488</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>461</v>
+      </c>
+      <c r="X75" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>496</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>497</v>
+      </c>
+      <c r="J76" t="s">
+        <v>498</v>
+      </c>
+      <c r="K76" t="s">
+        <v>499</v>
+      </c>
+      <c r="L76" t="s">
+        <v>500</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>501</v>
+      </c>
+      <c r="O76" t="s">
+        <v>107</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>461</v>
+      </c>
+      <c r="X76" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>504</v>
+      </c>
+      <c r="J77" t="s">
+        <v>505</v>
+      </c>
+      <c r="K77" t="s">
+        <v>506</v>
+      </c>
+      <c r="L77" t="s">
+        <v>507</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>508</v>
+      </c>
+      <c r="X77" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>511</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>512</v>
+      </c>
+      <c r="J78" t="s">
+        <v>513</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s">
+        <v>88</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>514</v>
+      </c>
+      <c r="O78" t="s">
+        <v>107</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>508</v>
+      </c>
+      <c r="X78" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>516</v>
+      </c>
+      <c r="J79" t="s">
+        <v>517</v>
+      </c>
+      <c r="K79" t="s">
+        <v>518</v>
+      </c>
+      <c r="L79" t="s">
+        <v>519</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>514</v>
+      </c>
+      <c r="O79" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>508</v>
+      </c>
+      <c r="X79" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>521</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>522</v>
+      </c>
+      <c r="J80" t="s">
+        <v>523</v>
+      </c>
+      <c r="K80" t="s">
+        <v>524</v>
+      </c>
+      <c r="L80" t="s">
+        <v>525</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>526</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>527</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>528</v>
+      </c>
+      <c r="J81" t="s">
+        <v>523</v>
+      </c>
+      <c r="K81" t="s">
+        <v>529</v>
+      </c>
+      <c r="L81" t="s">
+        <v>530</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>526</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>531</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>532</v>
+      </c>
+      <c r="J82" t="s">
+        <v>533</v>
+      </c>
+      <c r="K82" t="s">
+        <v>534</v>
+      </c>
+      <c r="L82" t="s">
+        <v>535</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>537</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>538</v>
+      </c>
+      <c r="J83" t="s">
+        <v>539</v>
+      </c>
+      <c r="K83" t="s">
+        <v>540</v>
+      </c>
+      <c r="L83" t="s">
+        <v>541</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>542</v>
+      </c>
+      <c r="O83" t="s">
+        <v>72</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>543</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>544</v>
+      </c>
+      <c r="J84" t="s">
+        <v>545</v>
+      </c>
+      <c r="K84" t="s">
+        <v>546</v>
+      </c>
+      <c r="L84" t="s">
+        <v>547</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>548</v>
+      </c>
+      <c r="O84" t="s">
+        <v>107</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60131</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>549</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>550</v>
+      </c>
+      <c r="J85" t="s">
+        <v>551</v>
+      </c>
+      <c r="K85" t="s">
+        <v>552</v>
+      </c>
+      <c r="L85" t="s">
+        <v>553</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>554</v>
+      </c>
+      <c r="O85" t="s">
+        <v>107</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
